--- a/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
+++ b/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:33:08+00:00</t>
+    <t>2023-12-14T10:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
+++ b/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:33:39+00:00</t>
+    <t>2023-12-14T10:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
+++ b/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:33:50+00:00</t>
+    <t>2023-12-14T10:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
+++ b/ig/nr-add-nos-dependency/StructureDefinition-gap-fr-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:34:39+00:00</t>
+    <t>2023-12-14T10:42:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
